--- a/data/trans_camb/P19_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,94</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,86</t>
+          <t>14,91</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 0,11</t>
+          <t>-6,79; 17,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 2,16</t>
+          <t>-15,4; 13,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 3,13</t>
+          <t>-15,13; 12,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 3,95</t>
+          <t>-27,44; 6,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 1,89</t>
+          <t>-4,47; 26,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 0,14</t>
+          <t>-4,14; 27,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,83; -0,4</t>
+          <t>-0,1; 30,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -1,33</t>
+          <t>4,05; 33,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,78; -1,17</t>
+          <t>-2,65; 18,78</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 17,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 19,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 17,28</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-68,81%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-55,86%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-49,15%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,54%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-49,84%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-50,24%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-50,58%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-53,49%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,64%</t>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 86,05</t>
+          <t>-6,76; 23,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 93,6</t>
+          <t>-15,75; 15,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; 15,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,65; 41,97</t>
+          <t>-28,58; 7,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 17,77</t>
+          <t>-5,0; 42,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,33; 7,88</t>
+          <t>-4,6; 42,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,2; 1,99</t>
+          <t>-0,09; 48,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,96; -4,69</t>
+          <t>4,8; 53,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-75,34; -3,98</t>
+          <t>-3,0; 25,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 22,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 25,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 22,76</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,43</t>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,59</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -0,27</t>
+          <t>-2,34; 20,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 0,37</t>
+          <t>-4,12; 20,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 0,35</t>
+          <t>-4,54; 18,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 0,48</t>
+          <t>-3,2; 20,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -1,65</t>
+          <t>-4,77; 17,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 2,2</t>
+          <t>-2,06; 17,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -1,73</t>
+          <t>-5,05; 16,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,52; -1,75</t>
+          <t>-10,56; 12,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -0,8</t>
+          <t>-0,36; 15,53</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 16,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 14,75</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 13,36</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-75,04%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-68,86%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-67,38%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-63,17%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-70,77%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,34%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-67,63%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-70,17%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-58,26%</t>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 38,94</t>
+          <t>-2,49; 27,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,53</t>
+          <t>-4,35; 26,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,79</t>
+          <t>-4,71; 24,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-92,9; 27,6</t>
+          <t>-3,23; 27,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-95,0; 16,46</t>
+          <t>-4,73; 21,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,54; 39,76</t>
+          <t>-2,12; 22,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-88,59; -7,87</t>
+          <t>-5,1; 21,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-91,09; -13,67</t>
+          <t>-11,2; 15,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-83,98; -1,14</t>
+          <t>-0,38; 19,2</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 19,61</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 17,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 16,37</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 4,53</t>
+          <t>-10,01; 8,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 3,19</t>
+          <t>-3,64; 10,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 4,82</t>
+          <t>-9,13; 8,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 2,63</t>
+          <t>-15,48; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,8</t>
+          <t>-4,41; 8,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 10,27</t>
+          <t>-9,56; 5,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,97</t>
+          <t>-11,95; 3,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,67</t>
+          <t>-0,35; 11,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,64</t>
+          <t>-4,33; 5,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 5,26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 3,26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 5,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-35,3%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-24,68%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,54%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-0,24%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,91; 409,03</t>
+          <t>-10,27; 9,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 12,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 9,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,09; 77,07</t>
+          <t>-16,16; 5,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 143,39</t>
+          <t>-4,42; 10,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 227,21</t>
+          <t>-10,01; 6,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,74; 59,21</t>
+          <t>-12,6; 3,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,26; 68,51</t>
+          <t>-0,26; 12,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 140,34</t>
+          <t>-4,55; 6,4</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 5,77</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 3,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 6,5</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,49</t>
+          <t>-7,41; 1,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,65</t>
+          <t>-11,04; 0,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 6,37</t>
+          <t>-8,93; 1,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 3,55</t>
+          <t>-12,33; -0,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 1,68</t>
+          <t>-7,23; 10,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,12</t>
+          <t>-4,76; 12,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 2,37</t>
+          <t>-8,38; 10,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 2,15</t>
+          <t>-11,35; 8,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 3,66</t>
+          <t>-6,16; 5,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 5,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 4,87</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; 2,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-37,18%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-16,21%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,75%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-25,16%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-89,38; 432,97</t>
+          <t>-8,51; 1,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 558,18</t>
+          <t>-11,33; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,18; 530,95</t>
+          <t>-9,03; 1,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 53,58</t>
+          <t>-12,73; -0,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,99; 25,17</t>
+          <t>-8,15; 13,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 58,37</t>
+          <t>-5,13; 15,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 40,89</t>
+          <t>-9,14; 12,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 39,3</t>
+          <t>-12,49; 10,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 60,29</t>
+          <t>-6,49; 5,6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 6,22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 5,51</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 3,14</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-3,59</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 1,21</t>
+          <t>-5,15; 9,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 3,84</t>
+          <t>-6,37; 8,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 7,67</t>
+          <t>-13,83; 5,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 6,83</t>
+          <t>-3,4; 10,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 3,65</t>
+          <t>-9,52; 12,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -0,06</t>
+          <t>-9,18; 13,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 1,91</t>
+          <t>-0,38; 19,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 1,81</t>
+          <t>-14,14; 11,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,8</t>
+          <t>-4,59; 7,76</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 7,6</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 8,25</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-6,91; 6,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-61,08%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-30,09%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>-3,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-38,82%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-67,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-31,75%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-35,47%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-32,56%</t>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-91,29; 115,07</t>
+          <t>-5,19; 10,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,13; 135,22</t>
+          <t>-6,67; 9,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,78; 278,76</t>
+          <t>-14,54; 5,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,68; 150,84</t>
+          <t>-3,5; 11,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-81,21; 86,43</t>
+          <t>-10,13; 14,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-99,82; 37,31</t>
+          <t>-9,24; 17,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-68,01; 40,45</t>
+          <t>-0,31; 25,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,13; 40,38</t>
+          <t>-15,2; 13,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-70,43; 39,28</t>
+          <t>-4,76; 8,83</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 8,64</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 9,6</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 7,35</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-2,63</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 7,3</t>
+          <t>-11,02; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 10,39</t>
+          <t>-12,75; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 3,51</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 5,14</t>
+          <t>-12,74; 3,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 5,61</t>
+          <t>-7,16; 5,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 3,13</t>
+          <t>-20,61; 1,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 5,32</t>
+          <t>0,0; 5,95</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 1,05</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 1,22</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; 0,0</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-61,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>85,12%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-46,16%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-31,71%</t>
+          <t>-3,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-13,75%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>-7,1%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-2,66%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-2,01%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
         </is>
       </c>
     </row>
@@ -1876,42 +2245,57 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
+          <t>-11,02; 0,0</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-12,75; 0,0</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 365,36</t>
-        </is>
-      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 134,05</t>
+          <t>0,0; 12,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 228,04</t>
+          <t>-12,8; 3,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-92,15; 212,44</t>
+          <t>-7,26; 5,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 140,55</t>
+          <t>-20,87; 1,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-79,16; 226,96</t>
+          <t>0,0; 6,33</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 1,06</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 1,23</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-14,14; 0,0</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,45</t>
+          <t>-1,94; 4,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,56</t>
+          <t>-2,9; 4,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,75</t>
+          <t>-4,68; 2,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -0,2</t>
+          <t>-5,83; 2,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,73</t>
+          <t>-0,27; 7,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,25</t>
+          <t>-0,87; 7,01</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,99</t>
+          <t>-1,47; 6,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -1,39</t>
+          <t>-2,29; 6,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,66; -0,22</t>
+          <t>0,14; 5,22</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 4,84</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 4,22</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,33</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-49,41%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-34,33%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-32,19%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-42,65%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-40,39%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-73,48; -10,28</t>
+          <t>-2,04; 5,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 15,8</t>
+          <t>-3,04; 4,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 45,6</t>
+          <t>-4,86; 2,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -1,7</t>
+          <t>-6,12; 2,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-62,61; -16,39</t>
+          <t>-0,28; 9,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-50,95; -0,14</t>
+          <t>-0,96; 8,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-56,05; -13,01</t>
+          <t>-1,63; 7,63</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-57,26; -17,58</t>
+          <t>-2,5; 7,21</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -2,92</t>
+          <t>0,16; 5,82</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,37</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 4,68</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 3,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
